--- a/data/trans_orig/BARTHEL_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R3-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>55943</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43540</v>
+        <v>43855</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70632</v>
+        <v>70716</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1499055625831394</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1166696920771944</v>
+        <v>0.1175149960268022</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1892664365063881</v>
+        <v>0.1894903886587961</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -765,19 +765,19 @@
         <v>125786</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>108216</v>
+        <v>107491</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>147585</v>
+        <v>147772</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2140138229869784</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1841201552349667</v>
+        <v>0.1828866802048946</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2511026574739111</v>
+        <v>0.2514206903494337</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>177</v>
@@ -786,19 +786,19 @@
         <v>181730</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>158759</v>
+        <v>159354</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>209958</v>
+        <v>207239</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1891168104907085</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1652125852964269</v>
+        <v>0.1658321255912395</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2184925431672926</v>
+        <v>0.215663563974578</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>317246</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>302557</v>
+        <v>302473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>329649</v>
+        <v>329334</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8500944374168605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8107335634936118</v>
+        <v>0.8105096113412037</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8833303079228055</v>
+        <v>0.8824850039731978</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>458</v>
@@ -836,19 +836,19 @@
         <v>461963</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>440164</v>
+        <v>439977</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>479533</v>
+        <v>480258</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7859861770130216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.748897342526089</v>
+        <v>0.7485793096505665</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8158798447650334</v>
+        <v>0.8171133197951055</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>796</v>
@@ -857,19 +857,19 @@
         <v>779208</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>750980</v>
+        <v>753699</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>802179</v>
+        <v>801584</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8108831895092915</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7815074568327074</v>
+        <v>0.7843364360254222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8347874147035731</v>
+        <v>0.8341678744087606</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>7003</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3482</v>
+        <v>3416</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13913</v>
+        <v>12883</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07950368069790102</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03953291933302206</v>
+        <v>0.03878083540227882</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1579589470908931</v>
+        <v>0.146258163017891</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -982,19 +982,19 @@
         <v>7893</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3424</v>
+        <v>3312</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14703</v>
+        <v>14890</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1268684932812285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05503705717873465</v>
+        <v>0.05323524713605737</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.236342315335171</v>
+        <v>0.2393387132313604</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -1003,19 +1003,19 @@
         <v>14896</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8659</v>
+        <v>8597</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23419</v>
+        <v>23341</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09910951218956447</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05761385930452739</v>
+        <v>0.05720133987560849</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1558225353321808</v>
+        <v>0.1553023607523247</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>81080</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74170</v>
+        <v>75200</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84601</v>
+        <v>84667</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.920496319302099</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8420410529091075</v>
+        <v>0.8537418369821107</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9604670806669779</v>
+        <v>0.9612191645977213</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -1053,19 +1053,19 @@
         <v>54319</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47509</v>
+        <v>47322</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58788</v>
+        <v>58900</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8731315067187715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.763657684664829</v>
+        <v>0.76066128676864</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9449629428212654</v>
+        <v>0.9467647528639427</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>134</v>
@@ -1074,19 +1074,19 @@
         <v>135399</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>126876</v>
+        <v>126954</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>141636</v>
+        <v>141698</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9008904878104356</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8441774646678192</v>
+        <v>0.8446976392476753</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9423861406954726</v>
+        <v>0.9427986601243915</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10552</v>
+        <v>10121</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09875532933242022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02348782756097387</v>
+        <v>0.02298713342214764</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2561473886281353</v>
+        <v>0.2456834891491823</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1199,19 +1199,19 @@
         <v>4224</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1193</v>
+        <v>1248</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9451</v>
+        <v>9080</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1571398022548435</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04436994360014004</v>
+        <v>0.04643649199128803</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3516007768700898</v>
+        <v>0.3377960713131785</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1220,19 +1220,19 @@
         <v>8292</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3814</v>
+        <v>3521</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17035</v>
+        <v>15318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.121809582977677</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05602875989108416</v>
+        <v>0.05171770048707171</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2502338047738165</v>
+        <v>0.225014519772167</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>37126</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30642</v>
+        <v>31073</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40226</v>
+        <v>40247</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9012446706675797</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7438526113718645</v>
+        <v>0.7543165108508176</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9765121724390261</v>
+        <v>0.9770128665778524</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -1270,19 +1270,19 @@
         <v>22657</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17430</v>
+        <v>17801</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25688</v>
+        <v>25633</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8428601977451564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6483992231299103</v>
+        <v>0.6622039286868211</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9556300563998603</v>
+        <v>0.9535635080087119</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>55</v>
@@ -1291,19 +1291,19 @@
         <v>59783</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>51040</v>
+        <v>52757</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>64261</v>
+        <v>64554</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.878190417022323</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7497661952261835</v>
+        <v>0.7749854802278329</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9439712401089158</v>
+        <v>0.9482822995129279</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>67014</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52118</v>
+        <v>54795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81411</v>
+        <v>83796</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1333705332244771</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1037247057035059</v>
+        <v>0.1090521764672224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1620223175132444</v>
+        <v>0.166770214699991</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -1416,19 +1416,19 @@
         <v>137903</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117735</v>
+        <v>118432</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161976</v>
+        <v>162406</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.203745126112127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1739478288141547</v>
+        <v>0.1749780444567464</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2393108578827693</v>
+        <v>0.2399460325688745</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>199</v>
@@ -1437,19 +1437,19 @@
         <v>204917</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>180645</v>
+        <v>178469</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>232434</v>
+        <v>230777</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.173760728081598</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1531785390248151</v>
+        <v>0.1513335345831459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1970931828606378</v>
+        <v>0.1956882480524964</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>435452</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>421055</v>
+        <v>418670</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>450348</v>
+        <v>447671</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.866629466775523</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8379776824867556</v>
+        <v>0.833229785300009</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8962752942964941</v>
+        <v>0.8909478235327777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>534</v>
@@ -1487,19 +1487,19 @@
         <v>538939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>514866</v>
+        <v>514436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>559107</v>
+        <v>558410</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.796254873887873</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7606891421172306</v>
+        <v>0.7600539674311256</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8260521711858452</v>
+        <v>0.8250219555432539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>985</v>
@@ -1508,19 +1508,19 @@
         <v>974391</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>946874</v>
+        <v>948531</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>998663</v>
+        <v>1000839</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.826239271918402</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8029068171393622</v>
+        <v>0.8043117519475036</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8468214609751848</v>
+        <v>0.8486664654168541</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>90079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72124</v>
+        <v>72702</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109048</v>
+        <v>108422</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2173742219090937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1740441818246851</v>
+        <v>0.1754400706382415</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2631488413344631</v>
+        <v>0.2616374583790542</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>194</v>
@@ -1872,19 +1872,19 @@
         <v>210555</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>186138</v>
+        <v>187749</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>234435</v>
+        <v>234293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3318197265484008</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2933416644875265</v>
+        <v>0.2958800549876945</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3694530706793992</v>
+        <v>0.3692305110929555</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>271</v>
@@ -1893,19 +1893,19 @@
         <v>300634</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>270853</v>
+        <v>270778</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>332772</v>
+        <v>330990</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2866066043532156</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2582152620654021</v>
+        <v>0.2581437618740521</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3172449025454435</v>
+        <v>0.3155465279298104</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>324319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>305350</v>
+        <v>305976</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>342274</v>
+        <v>341696</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7826257780909064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7368511586655371</v>
+        <v>0.7383625416209459</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8259558181753152</v>
+        <v>0.8245599293617589</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>402</v>
@@ -1943,19 +1943,19 @@
         <v>423990</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>400110</v>
+        <v>400252</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>448407</v>
+        <v>446796</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6681802734515991</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.630546929320601</v>
+        <v>0.6307694889070449</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7066583355124735</v>
+        <v>0.7041199450123057</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>703</v>
@@ -1964,19 +1964,19 @@
         <v>748308</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>716170</v>
+        <v>717952</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>778089</v>
+        <v>778164</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7133933956467844</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6827550974545565</v>
+        <v>0.6844534720701891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.741784737934598</v>
+        <v>0.7418562381259478</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>13280</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7816</v>
+        <v>7076</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22439</v>
+        <v>21388</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1119079726097108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06586922411117885</v>
+        <v>0.05962910917335666</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1890960185086075</v>
+        <v>0.1802398016857411</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -2089,19 +2089,19 @@
         <v>16302</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9954</v>
+        <v>10107</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25107</v>
+        <v>25402</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1962346762358445</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1198220345390286</v>
+        <v>0.121657033764074</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3022224861468887</v>
+        <v>0.3057706894494384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -2110,19 +2110,19 @@
         <v>29582</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19899</v>
+        <v>20235</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41321</v>
+        <v>41504</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1466329697226422</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09863647489050364</v>
+        <v>0.1003009594570714</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2048226426743486</v>
+        <v>0.2057327657686997</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>105385</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>96226</v>
+        <v>97277</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>110849</v>
+        <v>111589</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8880920273902893</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8109039814913926</v>
+        <v>0.8197601983142591</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9341307758888212</v>
+        <v>0.9403708908266434</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -2160,19 +2160,19 @@
         <v>66772</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57967</v>
+        <v>57672</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>73120</v>
+        <v>72967</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8037653237641554</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6977775138531114</v>
+        <v>0.6942293105505617</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8801779654609716</v>
+        <v>0.8783429662359259</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>154</v>
@@ -2181,19 +2181,19 @@
         <v>172157</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>160418</v>
+        <v>160235</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>181840</v>
+        <v>181504</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8533670302773578</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7951773573256514</v>
+        <v>0.7942672342313002</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9013635251094965</v>
+        <v>0.8996990405429286</v>
       </c>
     </row>
     <row r="9">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6046</v>
+        <v>6634</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07632111835967792</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2275192412363409</v>
+        <v>0.2496171206916632</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2306,19 +2306,19 @@
         <v>4423</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1100</v>
+        <v>1144</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9511</v>
+        <v>10157</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1988366325966705</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04943532425763567</v>
+        <v>0.05142913586140756</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4275327942824911</v>
+        <v>0.4565721902873432</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -2327,19 +2327,19 @@
         <v>6452</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2346</v>
+        <v>2892</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12923</v>
+        <v>12778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1321475246515685</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04804887276218665</v>
+        <v>0.05923139191093243</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2647000197996901</v>
+        <v>0.2617357041993825</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2356,7 @@
         <v>24547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20529</v>
+        <v>19941</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>26575</v>
@@ -2365,7 +2365,7 @@
         <v>0.9236788816403221</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7724807587636594</v>
+        <v>0.7503828793083349</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2377,19 +2377,19 @@
         <v>17823</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12735</v>
+        <v>12089</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21146</v>
+        <v>21102</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8011633674033295</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5724672057175089</v>
+        <v>0.5434278097126569</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9505646757423644</v>
+        <v>0.9485708641385925</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -2398,19 +2398,19 @@
         <v>42369</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35898</v>
+        <v>36043</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46475</v>
+        <v>45929</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8678524753484315</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7352999802003102</v>
+        <v>0.7382642958006183</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9519511272378134</v>
+        <v>0.9407686080890688</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>105387</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86868</v>
+        <v>86271</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126408</v>
+        <v>126219</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1883133287584055</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1552220075980543</v>
+        <v>0.1541556883794856</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2258754894346823</v>
+        <v>0.2255376232233162</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>213</v>
@@ -2523,19 +2523,19 @@
         <v>231280</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>203020</v>
+        <v>206348</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>256411</v>
+        <v>257884</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3125973192938925</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.274401881253278</v>
+        <v>0.278899795226053</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3465641877158682</v>
+        <v>0.3485548428974919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>305</v>
@@ -2544,19 +2544,19 @@
         <v>336667</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>308172</v>
+        <v>302469</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>373127</v>
+        <v>369766</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.259073796543769</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.237145937520864</v>
+        <v>0.2327577336656321</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2871306215331226</v>
+        <v>0.2845446649234932</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>454250</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>433229</v>
+        <v>433418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>472769</v>
+        <v>473366</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8116866712415944</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7741245105653179</v>
+        <v>0.7744623767766836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8447779924019457</v>
+        <v>0.8458443116205143</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>478</v>
@@ -2594,19 +2594,19 @@
         <v>508585</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>483454</v>
+        <v>481981</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>536845</v>
+        <v>533517</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6874026807061075</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6534358122841319</v>
+        <v>0.6514451571025082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7255981187467223</v>
+        <v>0.721100204773947</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>890</v>
@@ -2615,19 +2615,19 @@
         <v>962835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>926375</v>
+        <v>929736</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>991330</v>
+        <v>997033</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7409262034562311</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7128693784668773</v>
+        <v>0.715455335076506</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.762854062479136</v>
+        <v>0.7672422663343679</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>76498</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62744</v>
+        <v>62443</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91243</v>
+        <v>90910</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2161562471350546</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1772938602488213</v>
+        <v>0.1764421746033749</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2578218307085642</v>
+        <v>0.2568811036176898</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>153</v>
@@ -2979,19 +2979,19 @@
         <v>189628</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>162908</v>
+        <v>166865</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>211665</v>
+        <v>216917</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3418218524748393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2936564839889018</v>
+        <v>0.3007890682838165</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3815457129130702</v>
+        <v>0.3910120292579228</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>238</v>
@@ -3000,19 +3000,19 @@
         <v>266126</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>235870</v>
+        <v>238929</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>294582</v>
+        <v>295992</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.292877995440031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2595808313379288</v>
+        <v>0.2629466651657448</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3241944757345066</v>
+        <v>0.3257462637480852</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>277403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>262658</v>
+        <v>262991</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291157</v>
+        <v>291458</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7838437528649453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7421781692914358</v>
+        <v>0.7431188963823101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8227061397511788</v>
+        <v>0.8235578253966248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>318</v>
@@ -3050,19 +3050,19 @@
         <v>365129</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>343092</v>
+        <v>337840</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>391849</v>
+        <v>387892</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6581781475251607</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6184542870869298</v>
+        <v>0.6089879707420772</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7063435160110981</v>
+        <v>0.6992109317161835</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>619</v>
@@ -3071,19 +3071,19 @@
         <v>642532</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>614076</v>
+        <v>612666</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>672788</v>
+        <v>669729</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.707122004559969</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6758055242654933</v>
+        <v>0.6742537362519148</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7404191686620708</v>
+        <v>0.7370533348342551</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>18276</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11253</v>
+        <v>11773</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27248</v>
+        <v>27933</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09492464844726377</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05844826731262571</v>
+        <v>0.06114747814143817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1415219400780771</v>
+        <v>0.1450810027692069</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -3196,19 +3196,19 @@
         <v>44664</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32418</v>
+        <v>32379</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58922</v>
+        <v>59857</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2374799259796278</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1723687534064187</v>
+        <v>0.1721586853814694</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3132901242793664</v>
+        <v>0.3182604422066221</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -3217,19 +3217,19 @@
         <v>62940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49766</v>
+        <v>48418</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79231</v>
+        <v>80064</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1653674207313389</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1307551364980226</v>
+        <v>0.1272122352725367</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2081711844711816</v>
+        <v>0.2103602693618724</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>174256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>165284</v>
+        <v>164599</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>181279</v>
+        <v>180759</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9050753515527362</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8584780599219234</v>
+        <v>0.8549189972307937</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9415517326873744</v>
+        <v>0.9388525218585618</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>122</v>
@@ -3267,19 +3267,19 @@
         <v>143410</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>129152</v>
+        <v>128217</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>155656</v>
+        <v>155695</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7625200740203723</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6867098757206336</v>
+        <v>0.681739557793378</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8276312465935813</v>
+        <v>0.8278413146185307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>299</v>
@@ -3288,19 +3288,19 @@
         <v>317666</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>301375</v>
+        <v>300542</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>330840</v>
+        <v>332188</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8346325792686611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7918288155288183</v>
+        <v>0.7896397306381275</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8692448635019774</v>
+        <v>0.8727877647274633</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>5855</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1853</v>
+        <v>2342</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12776</v>
+        <v>13436</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1393007688629492</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04409583631560026</v>
+        <v>0.05571188055890446</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3039774610925391</v>
+        <v>0.3196744084259006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3413,19 +3413,19 @@
         <v>5917</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2054</v>
+        <v>2336</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12193</v>
+        <v>13215</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1757252693703286</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06099351051055835</v>
+        <v>0.06936595159997314</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3620842655422222</v>
+        <v>0.392443174605102</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3434,19 +3434,19 @@
         <v>11772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5358</v>
+        <v>6130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19079</v>
+        <v>19953</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1555029886612237</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07077772373973502</v>
+        <v>0.08097344825359114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2520191666573833</v>
+        <v>0.2635651638404878</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>36174</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29253</v>
+        <v>28593</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40176</v>
+        <v>39687</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8606992311370508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.696022538907461</v>
+        <v>0.6803255915740993</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9559041636843997</v>
+        <v>0.9442881194410955</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -3484,19 +3484,19 @@
         <v>27757</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21481</v>
+        <v>20459</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31620</v>
+        <v>31338</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8242747306296715</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6379157344577779</v>
+        <v>0.6075568253948982</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9390064894894417</v>
+        <v>0.9306340484000268</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>57</v>
@@ -3505,19 +3505,19 @@
         <v>63931</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>56624</v>
+        <v>55750</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>70345</v>
+        <v>69573</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8444970113387763</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7479808333426168</v>
+        <v>0.7364348361595119</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.929222276260265</v>
+        <v>0.9190265517464088</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>100629</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83015</v>
+        <v>83414</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117631</v>
+        <v>119825</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1710027564551116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1410716325653676</v>
+        <v>0.141748541531254</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1998950556675487</v>
+        <v>0.2036233353610985</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -3630,19 +3630,19 @@
         <v>240209</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>212730</v>
+        <v>211479</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>271556</v>
+        <v>270473</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3093466484905315</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2739585075457986</v>
+        <v>0.2723475846446903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3497162134197795</v>
+        <v>0.3483204979275475</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>303</v>
@@ -3651,19 +3651,19 @@
         <v>340838</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>309661</v>
+        <v>305883</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>375210</v>
+        <v>373396</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2497040470284257</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2268632698215184</v>
+        <v>0.2240955988531784</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2748854413219001</v>
+        <v>0.273556558857354</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>487834</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>470832</v>
+        <v>468638</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505448</v>
+        <v>505049</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8289972435448885</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8001049443324514</v>
+        <v>0.7963766646389016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8589283674346325</v>
+        <v>0.858251458468746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>461</v>
@@ -3701,19 +3701,19 @@
         <v>536296</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>504949</v>
+        <v>506032</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>563775</v>
+        <v>565026</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6906533515094685</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6502837865802203</v>
+        <v>0.6516795020724525</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7260414924542012</v>
+        <v>0.7276524153553097</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>975</v>
@@ -3722,19 +3722,19 @@
         <v>1024130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>989758</v>
+        <v>991572</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1055307</v>
+        <v>1059085</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7502959529715743</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7251145586780999</v>
+        <v>0.726443441142646</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7731367301784816</v>
+        <v>0.7759044011468216</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>86494</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74495</v>
+        <v>72659</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>98342</v>
+        <v>98676</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.300391422597772</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2587195972338556</v>
+        <v>0.2523446754665095</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3415426335293955</v>
+        <v>0.3427015339389477</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>470</v>
@@ -4086,19 +4086,19 @@
         <v>251566</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>234211</v>
+        <v>234632</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>266752</v>
+        <v>267469</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4720534156869958</v>
+        <v>0.4720534156869957</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4394879759549212</v>
+        <v>0.4402773588800449</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5005492438219369</v>
+        <v>0.5018954331516816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>608</v>
@@ -4107,19 +4107,19 @@
         <v>338059</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>317239</v>
+        <v>316883</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>360046</v>
+        <v>361072</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4118383908586484</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3864741907485217</v>
+        <v>0.3860409712290039</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4386239714090563</v>
+        <v>0.4398734413361287</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>201442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>189594</v>
+        <v>189260</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>213441</v>
+        <v>215277</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.699608577402228</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6584573664706045</v>
+        <v>0.6572984660610521</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7412804027661443</v>
+        <v>0.7476553245334906</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>539</v>
@@ -4157,19 +4157,19 @@
         <v>281352</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>266166</v>
+        <v>265449</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298707</v>
+        <v>298286</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5279465843130043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4994507561780629</v>
+        <v>0.4981045668483185</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5605120240450785</v>
+        <v>0.5597226411199551</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>826</v>
@@ -4178,19 +4178,19 @@
         <v>482795</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>460808</v>
+        <v>459782</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>503615</v>
+        <v>503971</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5881616091413517</v>
+        <v>0.5881616091413515</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.561376028590944</v>
+        <v>0.5601265586638715</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6135258092514784</v>
+        <v>0.6139590287709962</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>48883</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39581</v>
+        <v>38351</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60704</v>
+        <v>59143</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1608930951470183</v>
+        <v>0.1608930951470184</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1302757716039697</v>
+        <v>0.1262271062877491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1997980925295069</v>
+        <v>0.1946609906399106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>124</v>
@@ -4303,19 +4303,19 @@
         <v>66430</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56123</v>
+        <v>56230</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77865</v>
+        <v>76892</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2395598719311484</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2023915327619911</v>
+        <v>0.2027752485751963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2807946786941646</v>
+        <v>0.2772889354779614</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -4324,19 +4324,19 @@
         <v>115314</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100210</v>
+        <v>100507</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131439</v>
+        <v>129525</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1984311852826593</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1724403298670005</v>
+        <v>0.1729516091809891</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2261802525975393</v>
+        <v>0.2228857132318944</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>254942</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>243121</v>
+        <v>244682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>264244</v>
+        <v>265474</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8391069048529816</v>
+        <v>0.8391069048529817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8002019074704931</v>
+        <v>0.8053390093600892</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8697242283960306</v>
+        <v>0.8737728937122509</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>404</v>
@@ -4374,19 +4374,19 @@
         <v>210871</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>199436</v>
+        <v>200409</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>221178</v>
+        <v>221071</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7604401280688518</v>
+        <v>0.7604401280688515</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7192053213058353</v>
+        <v>0.7227110645220385</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7976084672380088</v>
+        <v>0.7972247514248035</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>757</v>
@@ -4395,19 +4395,19 @@
         <v>465812</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>449687</v>
+        <v>451601</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>480916</v>
+        <v>480619</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8015688147173408</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7738197474024608</v>
+        <v>0.7771142867681057</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8275596701329995</v>
+        <v>0.8270483908190108</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>15298</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9760</v>
+        <v>9483</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22153</v>
+        <v>22383</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1286873683211759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08209743882230468</v>
+        <v>0.07977142506375999</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1863419234792432</v>
+        <v>0.1882778410571266</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -4520,19 +4520,19 @@
         <v>14446</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9921</v>
+        <v>10145</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20400</v>
+        <v>20260</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1743503787275602</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1197418339451382</v>
+        <v>0.1224450358758636</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2462147046432601</v>
+        <v>0.2445177360185892</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -4541,19 +4541,19 @@
         <v>29744</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22739</v>
+        <v>22738</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38443</v>
+        <v>39043</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1474416608510779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1127161141697959</v>
+        <v>0.1127109552545659</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1905608354110075</v>
+        <v>0.1935373898834492</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>103583</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96728</v>
+        <v>96498</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>109121</v>
+        <v>109398</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.871312631678824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8136580765207568</v>
+        <v>0.8117221589428736</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9179025611776953</v>
+        <v>0.9202285749362401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>127</v>
@@ -4591,19 +4591,19 @@
         <v>68409</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62455</v>
+        <v>62595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>72934</v>
+        <v>72710</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8256496212724399</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7537852953567403</v>
+        <v>0.7554822639814108</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.880258166054862</v>
+        <v>0.8775549641241365</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>275</v>
@@ -4612,19 +4612,19 @@
         <v>171992</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>163293</v>
+        <v>162693</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>178997</v>
+        <v>178998</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8525583391489223</v>
+        <v>0.8525583391489222</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8094391645889926</v>
+        <v>0.8064626101165506</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8872838858302042</v>
+        <v>0.887289044745434</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>150676</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>132870</v>
+        <v>132734</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>169257</v>
+        <v>168702</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2120271106022142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1869717154916259</v>
+        <v>0.1867799442634258</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2381748586565061</v>
+        <v>0.2373931366096513</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>619</v>
@@ -4737,19 +4737,19 @@
         <v>332442</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>312111</v>
+        <v>312543</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>353222</v>
+        <v>353434</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3722442914630461</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3494795204893784</v>
+        <v>0.3499626441693626</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3955127563126005</v>
+        <v>0.3957501687722455</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>850</v>
@@ -4758,19 +4758,19 @@
         <v>483117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>455807</v>
+        <v>456657</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>511042</v>
+        <v>512671</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3012484680509345</v>
+        <v>0.3012484680509344</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2842194954591441</v>
+        <v>0.284749057832931</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3186612382344681</v>
+        <v>0.319677032829728</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>559967</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>541386</v>
+        <v>541941</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>577773</v>
+        <v>577909</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7879728893977858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7618251413434938</v>
+        <v>0.7626068633903489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8130282845083743</v>
+        <v>0.8132200557365742</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1070</v>
@@ -4808,19 +4808,19 @@
         <v>560632</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>539852</v>
+        <v>539640</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>580963</v>
+        <v>580531</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6277557085369539</v>
+        <v>0.6277557085369541</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6044872436873994</v>
+        <v>0.6042498312277543</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6505204795106216</v>
+        <v>0.6500373558306372</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1858</v>
@@ -4829,19 +4829,19 @@
         <v>1120599</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1092674</v>
+        <v>1091045</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1147909</v>
+        <v>1147059</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6987515319490657</v>
+        <v>0.6987515319490656</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6813387617655319</v>
+        <v>0.680322967170272</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7157805045408557</v>
+        <v>0.715250942167069</v>
       </c>
     </row>
     <row r="15">
